--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cntn1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cntn1-Notch2.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.380049</v>
+        <v>1.492477333333333</v>
       </c>
       <c r="N2">
-        <v>100.140147</v>
+        <v>4.477432</v>
       </c>
       <c r="O2">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="P2">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="Q2">
-        <v>9.811497942717001</v>
+        <v>0.4386883400186667</v>
       </c>
       <c r="R2">
-        <v>88.303481484453</v>
+        <v>3.948195060168</v>
       </c>
       <c r="S2">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="T2">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>101.573584</v>
       </c>
       <c r="O3">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978157</v>
       </c>
       <c r="P3">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978156</v>
       </c>
       <c r="Q3">
         <v>9.951942755290668</v>
@@ -632,10 +632,10 @@
         <v>89.567484797616</v>
       </c>
       <c r="S3">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978157</v>
       </c>
       <c r="T3">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978156</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,25 +679,25 @@
         <v>18.53974466666667</v>
       </c>
       <c r="N4">
-        <v>55.61923400000001</v>
+        <v>55.619234</v>
       </c>
       <c r="O4">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="P4">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="Q4">
         <v>5.449442769107334</v>
       </c>
       <c r="R4">
-        <v>49.04498492196601</v>
+        <v>49.044984921966</v>
       </c>
       <c r="S4">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="T4">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
     </row>
   </sheetData>
